--- a/src/test/testdaten_insert_gemeldete_krankenkasse/gemeldete Krankenkasse - ohne Abkuerzung.xlsx
+++ b/src/test/testdaten_insert_gemeldete_krankenkasse/gemeldete Krankenkasse - ohne Abkuerzung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxfr\PycharmProjects\Personalstammdatenbank\src\test\testdaten_insert_gemeldete_krankenkasse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46AAEF52-87CC-47C9-8080-37456E31B8B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB87549-B695-49C2-88D1-7ED04A640B54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36075" yWindow="3405" windowWidth="17280" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,18 +33,9 @@
     <t>Wert</t>
   </si>
   <si>
-    <t>Mitglied gesetzliche Krankenkasse (Abkürzung)</t>
-  </si>
-  <si>
-    <t>Mitglied gesetzliche Krankenkasse (vollständiger Name)</t>
-  </si>
-  <si>
     <t>Eintragungsdatum</t>
   </si>
   <si>
-    <t>15.12.2023</t>
-  </si>
-  <si>
     <t>Umlage U1 in Prozent</t>
   </si>
   <si>
@@ -55,6 +46,15 @@
   </si>
   <si>
     <t>Techniker Krankenkasse</t>
+  </si>
+  <si>
+    <t>Gemeldete Krankenkasse (vollständiger Name)</t>
+  </si>
+  <si>
+    <t>Gemeldete Krankenkasse (Abkürzung)</t>
+  </si>
+  <si>
+    <t>01.01.2024</t>
   </si>
 </sst>
 </file>
@@ -386,7 +386,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -405,21 +405,21 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B4" s="3">
         <v>1.6</v>
@@ -427,7 +427,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B5" s="3">
         <v>0.44</v>
@@ -435,7 +435,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B6" s="3">
         <v>0.06</v>
@@ -443,10 +443,10 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
